--- a/resources/ExcelFiles/6009map1.txt_hom&x_FTMF.xlsx
+++ b/resources/ExcelFiles/6009map1.txt_hom&x_FTMF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Consumption of silicon steels(m)</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cost time(second)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -455,6 +460,9 @@
       <c r="C2" t="n">
         <v>1.867698114053651</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.008287191390991</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -466,6 +474,9 @@
       <c r="C3" t="n">
         <v>1.710307762099381</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.9670991897583008</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -477,6 +488,9 @@
       <c r="C4" t="n">
         <v>1.614682059614992</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.8729441165924072</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -488,6 +502,9 @@
       <c r="C5" t="n">
         <v>1.550213232797966</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.8448441028594971</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -499,6 +516,9 @@
       <c r="C6" t="n">
         <v>1.497341823409612</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.8061299324035645</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -510,6 +530,9 @@
       <c r="C7" t="n">
         <v>1.452557704625092</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.8617231845855713</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -521,6 +544,9 @@
       <c r="C8" t="n">
         <v>1.413652956068076</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.7926921844482422</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -532,6 +558,9 @@
       <c r="C9" t="n">
         <v>1.381079790290662</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.8390610218048096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -543,6 +572,9 @@
       <c r="C10" t="n">
         <v>1.351450635973548</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.7238967418670654</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -554,6 +586,9 @@
       <c r="C11" t="n">
         <v>1.322867068670247</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.7402880191802979</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -565,6 +600,9 @@
       <c r="C12" t="n">
         <v>1.294627602781431</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.6820433139801025</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -576,6 +614,9 @@
       <c r="C13" t="n">
         <v>1.266727801755957</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.6369490623474121</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -587,6 +628,9 @@
       <c r="C14" t="n">
         <v>1.238947213011899</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.7362139225006104</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -598,6 +642,9 @@
       <c r="C15" t="n">
         <v>1.211293988235363</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.7155439853668213</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -609,6 +656,9 @@
       <c r="C16" t="n">
         <v>1.183906830881977</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.7454030513763428</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -620,6 +670,9 @@
       <c r="C17" t="n">
         <v>1.157131153110412</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.6711380481719971</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -631,6 +684,9 @@
       <c r="C18" t="n">
         <v>1.131069070732358</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.7220330238342285</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -642,6 +698,9 @@
       <c r="C19" t="n">
         <v>1.105538164981198</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.6750869750976562</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -653,6 +712,9 @@
       <c r="C20" t="n">
         <v>1.081066115382978</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.8271408081054688</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -664,6 +726,9 @@
       <c r="C21" t="n">
         <v>1.057402116986353</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.7950401306152344</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -675,6 +740,9 @@
       <c r="C22" t="n">
         <v>1.034913112234415</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.7431962490081787</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -686,6 +754,9 @@
       <c r="C23" t="n">
         <v>1.013792931554079</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.6913669109344482</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -697,6 +768,9 @@
       <c r="C24" t="n">
         <v>0.9933785692651</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.7605907917022705</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -708,6 +782,9 @@
       <c r="C25" t="n">
         <v>0.9736461349786424</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.6679518222808838</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -719,6 +796,9 @@
       <c r="C26" t="n">
         <v>0.9543782010754717</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.728583812713623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -730,6 +810,9 @@
       <c r="C27" t="n">
         <v>0.9356482325458397</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.6587789058685303</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -741,6 +824,9 @@
       <c r="C28" t="n">
         <v>0.9178136117184374</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.590519905090332</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -752,6 +838,9 @@
       <c r="C29" t="n">
         <v>0.900395763029017</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.6239821910858154</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -763,6 +852,9 @@
       <c r="C30" t="n">
         <v>0.8835019590076479</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.6224923133850098</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -774,6 +866,9 @@
       <c r="C31" t="n">
         <v>0.8667442445313828</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.6091570854187012</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -785,6 +880,9 @@
       <c r="C32" t="n">
         <v>0.8500688310992309</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.6064050197601318</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -796,6 +894,9 @@
       <c r="C33" t="n">
         <v>0.8335456633964834</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.5695819854736328</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -807,6 +908,9 @@
       <c r="C34" t="n">
         <v>0.8172975910963038</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.6194980144500732</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -818,6 +922,9 @@
       <c r="C35" t="n">
         <v>0.8013828763335528</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.5404410362243652</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -829,6 +936,9 @@
       <c r="C36" t="n">
         <v>0.7858194104784727</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.5383970737457275</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -840,6 +950,9 @@
       <c r="C37" t="n">
         <v>0.7705997700274145</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.5713050365447998</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -851,6 +964,9 @@
       <c r="C38" t="n">
         <v>0.7555735665089715</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.5372049808502197</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -862,6 +978,9 @@
       <c r="C39" t="n">
         <v>0.7409029401977703</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.542665958404541</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -873,6 +992,9 @@
       <c r="C40" t="n">
         <v>0.726587906701982</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.4975969791412354</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -884,6 +1006,9 @@
       <c r="C41" t="n">
         <v>0.7125537086499313</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.5355460643768311</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -895,6 +1020,9 @@
       <c r="C42" t="n">
         <v>0.6987268560704674</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.523061990737915</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -906,6 +1034,9 @@
       <c r="C43" t="n">
         <v>0.6850036217121926</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.5304980278015137</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -917,6 +1048,9 @@
       <c r="C44" t="n">
         <v>0.6714847984637422</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.466782808303833</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -928,6 +1062,9 @@
       <c r="C45" t="n">
         <v>0.6581436948658315</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.4713501930236816</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -939,6 +1076,9 @@
       <c r="C46" t="n">
         <v>0.644928307152824</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.5209269523620605</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -950,6 +1090,9 @@
       <c r="C47" t="n">
         <v>0.6318139845278884</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.5029597282409668</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -961,6 +1104,9 @@
       <c r="C48" t="n">
         <v>0.6188317560721915</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.4690208435058594</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -972,6 +1118,9 @@
       <c r="C49" t="n">
         <v>0.6060134513712446</v>
       </c>
+      <c r="D49" t="n">
+        <v>0.507720947265625</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -983,6 +1132,9 @@
       <c r="C50" t="n">
         <v>0.5933320504303486</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.4812097549438477</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -994,6 +1146,9 @@
       <c r="C51" t="n">
         <v>0.5807864867357186</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.4388127326965332</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1005,6 +1160,9 @@
       <c r="C52" t="n">
         <v>0.5684084565781341</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.4984476566314697</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1016,6 +1174,9 @@
       <c r="C53" t="n">
         <v>0.5563141681999751</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.5033760070800781</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1027,6 +1188,9 @@
       <c r="C54" t="n">
         <v>0.5444923924253448</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.4622108936309814</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1038,6 +1202,9 @@
       <c r="C55" t="n">
         <v>0.5329319470898319</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.4722890853881836</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1049,6 +1216,9 @@
       <c r="C56" t="n">
         <v>0.5214991563650838</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.5540118217468262</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1060,6 +1230,9 @@
       <c r="C57" t="n">
         <v>0.5101974088851222</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.4504060745239258</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1071,6 +1244,9 @@
       <c r="C58" t="n">
         <v>0.4991158178519445</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.4992868900299072</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1082,6 +1258,9 @@
       <c r="C59" t="n">
         <v>0.4881992971677149</v>
       </c>
+      <c r="D59" t="n">
+        <v>0.4656810760498047</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1093,6 +1272,9 @@
       <c r="C60" t="n">
         <v>0.4774733432197184</v>
       </c>
+      <c r="D60" t="n">
+        <v>0.4572458267211914</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1104,6 +1286,9 @@
       <c r="C61" t="n">
         <v>0.4669516763967022</v>
       </c>
+      <c r="D61" t="n">
+        <v>0.4718928337097168</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1115,6 +1300,9 @@
       <c r="C62" t="n">
         <v>0.4566131836585193</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.4797859191894531</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1126,6 +1314,9 @@
       <c r="C63" t="n">
         <v>0.446444757883998</v>
       </c>
+      <c r="D63" t="n">
+        <v>0.4288036823272705</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1137,6 +1328,9 @@
       <c r="C64" t="n">
         <v>0.4364675201735045</v>
       </c>
+      <c r="D64" t="n">
+        <v>0.4337000846862793</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1148,6 +1342,9 @@
       <c r="C65" t="n">
         <v>0.4266004888739545</v>
       </c>
+      <c r="D65" t="n">
+        <v>0.4446048736572266</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1159,6 +1356,9 @@
       <c r="C66" t="n">
         <v>0.4168547906328924</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.4211146831512451</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1170,6 +1370,9 @@
       <c r="C67" t="n">
         <v>0.4072998352088177</v>
       </c>
+      <c r="D67" t="n">
+        <v>0.4355580806732178</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1181,6 +1384,9 @@
       <c r="C68" t="n">
         <v>0.3979271385844059</v>
       </c>
+      <c r="D68" t="n">
+        <v>0.411376953125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1192,6 +1398,9 @@
       <c r="C69" t="n">
         <v>0.3887614123380628</v>
       </c>
+      <c r="D69" t="n">
+        <v>0.4093289375305176</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1203,6 +1412,9 @@
       <c r="C70" t="n">
         <v>0.3798185408161877</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.3733532428741455</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1214,6 +1426,9 @@
       <c r="C71" t="n">
         <v>0.371052026098265</v>
       </c>
+      <c r="D71" t="n">
+        <v>0.4070279598236084</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1225,6 +1440,9 @@
       <c r="C72" t="n">
         <v>0.3623601578827397</v>
       </c>
+      <c r="D72" t="n">
+        <v>0.3778018951416016</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1235,6 +1453,9 @@
       </c>
       <c r="C73" t="n">
         <v>0.3537898439043685</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.3734793663024902</v>
       </c>
     </row>
   </sheetData>
